--- a/data/trans_orig/P36B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B03-Habitat-trans_orig.xlsx
@@ -757,19 +757,19 @@
         <v>3135</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8404</v>
+        <v>8657</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00455415160326971</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001406719412617929</v>
+        <v>0.001410881489952552</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01220905016996682</v>
+        <v>0.01257575738836648</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -781,16 +781,16 @@
         <v>971</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8631</v>
+        <v>9602</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002267750649436628</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007023937710856236</v>
+        <v>0.000702773819939538</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006243383045449882</v>
+        <v>0.006946308554109551</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>3907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9803</v>
+        <v>9916</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005630198688197096</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001452912371253156</v>
+        <v>0.001440241625945249</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01412556931807285</v>
+        <v>0.01428746584155932</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -828,19 +828,19 @@
         <v>8102</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3718</v>
+        <v>3606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15365</v>
+        <v>14692</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01176994788279815</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005401766903069465</v>
+        <v>0.005238076540221123</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02232150081773921</v>
+        <v>0.02134376891896219</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -849,19 +849,19 @@
         <v>12009</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6469</v>
+        <v>6601</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21273</v>
+        <v>20915</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008687501438820957</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00467974774525804</v>
+        <v>0.004775249655468307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0153892139210583</v>
+        <v>0.01512982867236458</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>9403</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4733</v>
+        <v>4588</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17486</v>
+        <v>18626</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01354897616916904</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0068196491386198</v>
+        <v>0.006611433380777516</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02519546073449072</v>
+        <v>0.02683771123144071</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -899,19 +899,19 @@
         <v>22435</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14622</v>
+        <v>14391</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33014</v>
+        <v>33215</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03259238001845977</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02124160909985705</v>
+        <v>0.02090630323342287</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04796111822043446</v>
+        <v>0.04825370830025395</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -920,19 +920,19 @@
         <v>31838</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22155</v>
+        <v>22007</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45383</v>
+        <v>44655</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02303168452163305</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0160270990455467</v>
+        <v>0.01591971800198872</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03283004690361562</v>
+        <v>0.03230371254557556</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>25459</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16319</v>
+        <v>16991</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36844</v>
+        <v>36271</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03668353816458941</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02351393731044642</v>
+        <v>0.02448245721404137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05308807141659216</v>
+        <v>0.05226348930681105</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -970,19 +970,19 @@
         <v>30301</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21378</v>
+        <v>21177</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43298</v>
+        <v>42272</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04402019134938023</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03105647386340843</v>
+        <v>0.03076522264747363</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06290135050029959</v>
+        <v>0.06140998945994997</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -991,19 +991,19 @@
         <v>55760</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43050</v>
+        <v>42563</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>71725</v>
+        <v>71135</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04033684211093925</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03114243565542656</v>
+        <v>0.0307898376674483</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05188561139179897</v>
+        <v>0.05145898790634154</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>655243</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>642374</v>
+        <v>640845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>666761</v>
+        <v>666171</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9441372869780444</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9255954913191697</v>
+        <v>0.9233913184623238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9607339982072646</v>
+        <v>0.9598844684411587</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>631</v>
@@ -1041,19 +1041,19 @@
         <v>624378</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>606452</v>
+        <v>607595</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>636819</v>
+        <v>638893</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9070633291460921</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8810218350673513</v>
+        <v>0.8826813261757346</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9251368961640485</v>
+        <v>0.9281496822388171</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1277</v>
@@ -1062,19 +1062,19 @@
         <v>1279621</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1259732</v>
+        <v>1259764</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1299545</v>
+        <v>1297562</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9256762212791702</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9112887354756937</v>
+        <v>0.9113121200868572</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9400893135374846</v>
+        <v>0.9386548721225952</v>
       </c>
     </row>
     <row r="9">
@@ -1166,19 +1166,19 @@
         <v>3252</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8775</v>
+        <v>9844</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003381548674553328</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001103796422922499</v>
+        <v>0.001107709151297437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009123263194023311</v>
+        <v>0.01023467443612457</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1187,19 +1187,19 @@
         <v>12952</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7051</v>
+        <v>6966</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22200</v>
+        <v>22992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01338926058148211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007289252631434034</v>
+        <v>0.00720175208175499</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0229496166500999</v>
+        <v>0.02376849743360275</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1208,19 +1208,19 @@
         <v>16204</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9936</v>
+        <v>9209</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27458</v>
+        <v>26336</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008399756640107107</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00515068647202353</v>
+        <v>0.004773479131947375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01423330114750464</v>
+        <v>0.0136519570178244</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>6241</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2171</v>
+        <v>2156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13598</v>
+        <v>12535</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006488798474821795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002257719355753318</v>
+        <v>0.00224198677612735</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01413813149099327</v>
+        <v>0.01303329753583192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1258,19 +1258,19 @@
         <v>13184</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7347</v>
+        <v>6989</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23794</v>
+        <v>24190</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01362944661934277</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007595317080165808</v>
+        <v>0.007225438950875177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02459705155836756</v>
+        <v>0.02500683216276847</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1279,19 +1279,19 @@
         <v>19425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11277</v>
+        <v>11504</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>29224</v>
+        <v>30575</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0100693629166542</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005845393936458101</v>
+        <v>0.005963306483485727</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01514854069156557</v>
+        <v>0.01584926099266466</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>16410</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10278</v>
+        <v>9764</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26934</v>
+        <v>26328</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01706167627078817</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01068626646262185</v>
+        <v>0.01015149578852358</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02800388177287981</v>
+        <v>0.02737377946654289</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -1329,19 +1329,19 @@
         <v>25002</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>16798</v>
+        <v>17049</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36960</v>
+        <v>37252</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02584601132080841</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01736498421222269</v>
+        <v>0.01762497706313252</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03820808570325721</v>
+        <v>0.0385101152114127</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -1350,19 +1350,19 @@
         <v>41412</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30353</v>
+        <v>29201</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56381</v>
+        <v>56600</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02146644136895064</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01573386362431149</v>
+        <v>0.0151367122631465</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02922612680426434</v>
+        <v>0.02933951390523796</v>
       </c>
     </row>
     <row r="13">
@@ -1379,19 +1379,19 @@
         <v>38593</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27725</v>
+        <v>27909</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52398</v>
+        <v>51775</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04012544124860656</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02882575821088537</v>
+        <v>0.02901717701037162</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05447908701626621</v>
+        <v>0.05383134740817576</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1400,19 +1400,19 @@
         <v>64659</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50343</v>
+        <v>51005</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83164</v>
+        <v>81154</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06684219248023486</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05204268928250676</v>
+        <v>0.05272727650256719</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08597219420162591</v>
+        <v>0.08389475434621572</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1421,19 +1421,19 @@
         <v>103251</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>85164</v>
+        <v>82899</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125803</v>
+        <v>123719</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05352213123040482</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04414615301782144</v>
+        <v>0.04297237199922212</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06521216791074974</v>
+        <v>0.06413174214471136</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>897304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>879791</v>
+        <v>880040</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>911583</v>
+        <v>911764</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9329425353312302</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9147341402296675</v>
+        <v>0.9149931612684643</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9477883628107956</v>
+        <v>0.9479764216013938</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>799</v>
@@ -1471,19 +1471,19 @@
         <v>851537</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>827506</v>
+        <v>829096</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>870054</v>
+        <v>870604</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8802930889981319</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8554507617714883</v>
+        <v>0.8570951776158319</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8994353885641981</v>
+        <v>0.9000044339033196</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1634</v>
@@ -1492,19 +1492,19 @@
         <v>1748841</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1718554</v>
+        <v>1721712</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1771802</v>
+        <v>1773156</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9065423078438832</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8908426770987951</v>
+        <v>0.8924794795681491</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9184447058234964</v>
+        <v>0.9191467190167556</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>12250</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6082</v>
+        <v>6605</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21542</v>
+        <v>21367</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01805379255723391</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008963888812240703</v>
+        <v>0.009734425440179276</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03174833196288739</v>
+        <v>0.03149085632236073</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1617,19 +1617,19 @@
         <v>8228</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3889</v>
+        <v>4113</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15289</v>
+        <v>15671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01203161820380393</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005686268553455701</v>
+        <v>0.006013850743508891</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02235816741580289</v>
+        <v>0.0229162590361198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -1638,19 +1638,19 @@
         <v>20477</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12954</v>
+        <v>12762</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32478</v>
+        <v>31686</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01503092024284437</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009508753696402252</v>
+        <v>0.0093674440091196</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02383979550011433</v>
+        <v>0.02325849297081974</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>6184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2388</v>
+        <v>2469</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14560</v>
+        <v>14322</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.009114093670584144</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003519915087478155</v>
+        <v>0.003638645756178469</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02145840718924094</v>
+        <v>0.02110822186850514</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1688,19 +1688,19 @@
         <v>7511</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3720</v>
+        <v>3551</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14886</v>
+        <v>14573</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01098354925145017</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005439706747510787</v>
+        <v>0.005192611678031299</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02176860850517281</v>
+        <v>0.02131089386039116</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1709,19 +1709,19 @@
         <v>13695</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7117</v>
+        <v>7558</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22060</v>
+        <v>22722</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01005247990564263</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005223900390736066</v>
+        <v>0.005547515167639724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01619258172003325</v>
+        <v>0.01667884558389417</v>
       </c>
     </row>
     <row r="18">
@@ -1738,19 +1738,19 @@
         <v>27537</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19053</v>
+        <v>18545</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>41789</v>
+        <v>41219</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04058523184177291</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02808003437727849</v>
+        <v>0.02733245704711329</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06158989865172205</v>
+        <v>0.06074921451713984</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>42</v>
@@ -1759,19 +1759,19 @@
         <v>38848</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>28238</v>
+        <v>28586</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52079</v>
+        <v>52247</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05680845350060691</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04129391243147115</v>
+        <v>0.0418027701355923</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07615657408994775</v>
+        <v>0.07640277581784066</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>67</v>
@@ -1780,19 +1780,19 @@
         <v>66385</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>52990</v>
+        <v>51637</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>83590</v>
+        <v>84058</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04872859082219872</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03889628136746293</v>
+        <v>0.03790275978705163</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06135732595015354</v>
+        <v>0.06170082231860056</v>
       </c>
     </row>
     <row r="19">
@@ -1809,19 +1809,19 @@
         <v>42214</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31328</v>
+        <v>31856</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56204</v>
+        <v>57234</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06221630449627403</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04617179289668501</v>
+        <v>0.04694981014413147</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08283512466159096</v>
+        <v>0.08435212892666355</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -1830,19 +1830,19 @@
         <v>52994</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40827</v>
+        <v>40817</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69127</v>
+        <v>68850</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07749462071438215</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05970186166973099</v>
+        <v>0.05968736633802001</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1010859488301873</v>
+        <v>0.1006808552422444</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>99</v>
@@ -1851,19 +1851,19 @@
         <v>95208</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76423</v>
+        <v>78214</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>115807</v>
+        <v>115011</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06988536161679779</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05609664459101781</v>
+        <v>0.05741079673110621</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08500562506499529</v>
+        <v>0.08442088831692024</v>
       </c>
     </row>
     <row r="20">
@@ -1880,19 +1880,19 @@
         <v>590324</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>569647</v>
+        <v>571247</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>607707</v>
+        <v>606688</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.870030577434135</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8395569001370887</v>
+        <v>0.8419157679213431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.895650126573166</v>
+        <v>0.8941494723015221</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>583</v>
@@ -1901,19 +1901,19 @@
         <v>576260</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>555314</v>
+        <v>556265</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>594411</v>
+        <v>593953</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8426817583297569</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8120507217814478</v>
+        <v>0.8134417838648693</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8692244837724611</v>
+        <v>0.8685542687358295</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1138</v>
@@ -1922,19 +1922,19 @@
         <v>1166584</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1140433</v>
+        <v>1140653</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1188669</v>
+        <v>1191005</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8563026474125165</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8371071062821995</v>
+        <v>0.8372688308577133</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8725134100931872</v>
+        <v>0.874228689207769</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>6554</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2540</v>
+        <v>2560</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13896</v>
+        <v>14327</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006956204252887156</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002696058654420675</v>
+        <v>0.002716736335609842</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01474828375609607</v>
+        <v>0.01520577877094922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2047,19 +2047,19 @@
         <v>14463</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8103</v>
+        <v>8260</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23551</v>
+        <v>23342</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01392558780979484</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007802191359882919</v>
+        <v>0.007952463651946231</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02267512104772375</v>
+        <v>0.02247387550992742</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -2068,19 +2068,19 @@
         <v>21018</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13412</v>
+        <v>12812</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33718</v>
+        <v>32280</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0106104655651704</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006771000222285389</v>
+        <v>0.006468030579287164</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01702227491043352</v>
+        <v>0.0162961669825979</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>5149</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1747</v>
+        <v>2281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11806</v>
+        <v>11131</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005464339055504844</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001854474923225493</v>
+        <v>0.002420981994904146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01253004332757275</v>
+        <v>0.01181403911569487</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2118,19 +2118,19 @@
         <v>14082</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7778</v>
+        <v>7140</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23303</v>
+        <v>23845</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01355863361095554</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.007488722273498587</v>
+        <v>0.006874616917544646</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02243693868305346</v>
+        <v>0.02295821464948578</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -2139,19 +2139,19 @@
         <v>19231</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>12205</v>
+        <v>11440</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>29629</v>
+        <v>28996</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009708425666994546</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006161786254684978</v>
+        <v>0.005775293772512909</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01495798234540816</v>
+        <v>0.01463850524977174</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>28050</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19072</v>
+        <v>18278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42271</v>
+        <v>40473</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02977001132691578</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02024142427601118</v>
+        <v>0.01939886077155552</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04486301409915837</v>
+        <v>0.04295503569349526</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -2189,19 +2189,19 @@
         <v>41611</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31114</v>
+        <v>29838</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>55706</v>
+        <v>54980</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0400636502058106</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02995708389925044</v>
+        <v>0.02872870996754523</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05363469282022615</v>
+        <v>0.05293648750949066</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>68</v>
@@ -2210,19 +2210,19 @@
         <v>69661</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>53121</v>
+        <v>53444</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>88532</v>
+        <v>86174</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03516728154609856</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0268177294825624</v>
+        <v>0.0269804179643112</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04469455769325816</v>
+        <v>0.04350387151301886</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>88246</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>72586</v>
+        <v>70571</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>107718</v>
+        <v>106840</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09365760558691799</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07703670371864922</v>
+        <v>0.07489896216207588</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1143235839978962</v>
+        <v>0.113391958216907</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>80</v>
@@ -2260,19 +2260,19 @@
         <v>84040</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67375</v>
+        <v>68040</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>102714</v>
+        <v>104154</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0809153541109795</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0648701242759817</v>
+        <v>0.06551093764548688</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09889551315817177</v>
+        <v>0.1002814480862793</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>173</v>
@@ -2281,19 +2281,19 @@
         <v>172286</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>149137</v>
+        <v>148656</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>197291</v>
+        <v>197412</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08697645276763388</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07529020643302271</v>
+        <v>0.0750473266577209</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09959997009197939</v>
+        <v>0.09966124613539017</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>814223</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>792078</v>
+        <v>793761</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>833057</v>
+        <v>834525</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8641518397777742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8406487067891442</v>
+        <v>0.8424353469160014</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8841413752826984</v>
+        <v>0.8856993194237408</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>850</v>
@@ -2331,19 +2331,19 @@
         <v>884416</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>862018</v>
+        <v>860801</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>906152</v>
+        <v>907587</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8515367742624596</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8299716133824608</v>
+        <v>0.8287993476584334</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8724647549563151</v>
+        <v>0.8738456205108769</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1711</v>
@@ -2352,19 +2352,19 @@
         <v>1698639</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1664946</v>
+        <v>1667693</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1726792</v>
+        <v>1728123</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8575373744541026</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8405277441546084</v>
+        <v>0.8419143879765789</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8717498842188969</v>
+        <v>0.8724220439572804</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>22056</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14179</v>
+        <v>13312</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>33675</v>
+        <v>35442</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006731583189007505</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00432755252496398</v>
+        <v>0.004062894312735323</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01027757450633213</v>
+        <v>0.01081685101087938</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>37</v>
@@ -2477,19 +2477,19 @@
         <v>38778</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>28102</v>
+        <v>28054</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>54861</v>
+        <v>53639</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01147902678888688</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.008318921171835717</v>
+        <v>0.008304624848766536</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01624007894923916</v>
+        <v>0.01587816623351939</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>57</v>
@@ -2498,19 +2498,19 @@
         <v>60834</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>46237</v>
+        <v>47171</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>77454</v>
+        <v>78595</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.009141543545744105</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00694798046703777</v>
+        <v>0.007088405591465758</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01163897411208987</v>
+        <v>0.01181041929276457</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>21481</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13965</v>
+        <v>14161</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>32241</v>
+        <v>32470</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006555984954622256</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004262116440539187</v>
+        <v>0.004322063811726708</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.009839849009660256</v>
+        <v>0.009909746568257303</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -2548,19 +2548,19 @@
         <v>42879</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>31285</v>
+        <v>30557</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>58412</v>
+        <v>57640</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01269315890202711</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.009261089261721794</v>
+        <v>0.009045528478585295</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01729132222522016</v>
+        <v>0.01706258423763075</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>64</v>
@@ -2569,19 +2569,19 @@
         <v>64360</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>50368</v>
+        <v>50777</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>81733</v>
+        <v>83048</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009671418683212136</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.007568755563139114</v>
+        <v>0.00763030332974467</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01228197823578539</v>
+        <v>0.01247962933910723</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>81400</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>65932</v>
+        <v>63961</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>101938</v>
+        <v>102639</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02484340215721591</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0201223424700691</v>
+        <v>0.01952092668312353</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03111153484185902</v>
+        <v>0.03132527318447244</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>128</v>
@@ -2619,19 +2619,19 @@
         <v>127895</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>108647</v>
+        <v>106769</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>151482</v>
+        <v>151090</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03785969435850751</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03216187447948263</v>
+        <v>0.03160583671579299</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04484197387995208</v>
+        <v>0.04472593375378398</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>205</v>
@@ -2640,19 +2640,19 @@
         <v>209296</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>181484</v>
+        <v>183856</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>239491</v>
+        <v>241516</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03145090523479003</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02727166814462768</v>
+        <v>0.02762800486505503</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03598837954950658</v>
+        <v>0.03629261884549937</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>194512</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>168549</v>
+        <v>170646</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>224573</v>
+        <v>221537</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05936502093845754</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05144119172616483</v>
+        <v>0.05208110917364243</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06853963357063646</v>
+        <v>0.0676129838705011</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>226</v>
@@ -2690,19 +2690,19 @@
         <v>231994</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>203883</v>
+        <v>203587</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>261634</v>
+        <v>263686</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06867502951836289</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0603535635696025</v>
+        <v>0.06026599060672862</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07744922776404663</v>
+        <v>0.07805668097774889</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>424</v>
@@ -2711,19 +2711,19 @@
         <v>426506</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>391069</v>
+        <v>392086</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>472871</v>
+        <v>468287</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06409109111210207</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05876606820386175</v>
+        <v>0.0589188807863265</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07105844217035673</v>
+        <v>0.07036949771561099</v>
       </c>
     </row>
     <row r="32">
@@ -2740,19 +2740,19 @@
         <v>2957093</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2922036</v>
+        <v>2922536</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2988990</v>
+        <v>2986932</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9025040087606968</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8918046571835559</v>
+        <v>0.8919570623675888</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9122388120299812</v>
+        <v>0.9116107308333913</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2863</v>
@@ -2761,19 +2761,19 @@
         <v>2936591</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2897665</v>
+        <v>2898036</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2974721</v>
+        <v>2977787</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8692930904322156</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8577700766445951</v>
+        <v>0.8578799904410302</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8805802223858988</v>
+        <v>0.8814879277894522</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5760</v>
@@ -2782,19 +2782,19 @@
         <v>5893685</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5838984</v>
+        <v>5838598</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5939775</v>
+        <v>5943419</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8856450414241517</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8774251162959327</v>
+        <v>0.8773671378396121</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8925710149194578</v>
+        <v>0.8931185299934479</v>
       </c>
     </row>
     <row r="33">
@@ -3126,19 +3126,19 @@
         <v>3953</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12020</v>
+        <v>10910</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005628877497957865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00133338924279052</v>
+        <v>0.001330992750976064</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01711588349517249</v>
+        <v>0.01553475240459208</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3147,19 +3147,19 @@
         <v>4909</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12106</v>
+        <v>12766</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007042445992469914</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001719084170052095</v>
+        <v>0.001711931609212232</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01736780693035071</v>
+        <v>0.01831453501174769</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3168,19 +3168,19 @@
         <v>8862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3770</v>
+        <v>3253</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19218</v>
+        <v>18843</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006333010012023211</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002694109103434217</v>
+        <v>0.002324835638679593</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01373341737650533</v>
+        <v>0.01346568436997893</v>
       </c>
     </row>
     <row r="5">
@@ -3213,16 +3213,16 @@
         <v>926</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7755</v>
+        <v>7846</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004163187972169625</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001327817992742619</v>
+        <v>0.001328819178289685</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01112475164477252</v>
+        <v>0.01125657780487197</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -3234,16 +3234,16 @@
         <v>927</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8170</v>
+        <v>7771</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002073784202711951</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0006626834646908796</v>
+        <v>0.0006627524247936107</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.005838736102576422</v>
+        <v>0.005553618818097733</v>
       </c>
     </row>
     <row r="6">
@@ -3260,19 +3260,19 @@
         <v>6436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2693</v>
+        <v>2778</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12458</v>
+        <v>12124</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.009163766306849954</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003834195886803074</v>
+        <v>0.003956162033686026</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01773878586099428</v>
+        <v>0.01726392609766391</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -3281,19 +3281,19 @@
         <v>25907</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16341</v>
+        <v>17422</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36763</v>
+        <v>37887</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03716687800437072</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02344281347421279</v>
+        <v>0.02499365475229801</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05274035303244786</v>
+        <v>0.05435388206292287</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -3302,19 +3302,19 @@
         <v>32343</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22732</v>
+        <v>21187</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>46088</v>
+        <v>45180</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02311279072114578</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01624469430929856</v>
+        <v>0.0151408316878636</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03293514479801771</v>
+        <v>0.03228628986301336</v>
       </c>
     </row>
     <row r="7">
@@ -3331,19 +3331,19 @@
         <v>25331</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16513</v>
+        <v>16663</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38559</v>
+        <v>37290</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03606861438307876</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02351295905914851</v>
+        <v>0.0237268599549736</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0549033354774387</v>
+        <v>0.05309758953465948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -3352,19 +3352,19 @@
         <v>37049</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25956</v>
+        <v>25413</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50246</v>
+        <v>51054</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05315167464956887</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03723692622229131</v>
+        <v>0.03645739288066312</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07208421857365649</v>
+        <v>0.07324360170364316</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -3373,19 +3373,19 @@
         <v>62380</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47237</v>
+        <v>48874</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79026</v>
+        <v>80713</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0445780981612424</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03375639166271835</v>
+        <v>0.03492590335256028</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05647338750184918</v>
+        <v>0.05767924715338956</v>
       </c>
     </row>
     <row r="8">
@@ -3402,19 +3402,19 @@
         <v>666580</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>652983</v>
+        <v>653145</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>676811</v>
+        <v>677081</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9491387418121134</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9297779645709672</v>
+        <v>0.9300086206332189</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9637065896629015</v>
+        <v>0.9640902289325263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>585</v>
@@ -3423,19 +3423,19 @@
         <v>626283</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>610072</v>
+        <v>608641</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>641145</v>
+        <v>641632</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8984758133814209</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8752196172796062</v>
+        <v>0.8731664118484298</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9197975654949643</v>
+        <v>0.9204956720056306</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1224</v>
@@ -3444,19 +3444,19 @@
         <v>1292863</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1271220</v>
+        <v>1269375</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1313063</v>
+        <v>1310663</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9239023169028766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9084363508434418</v>
+        <v>0.9071174148836422</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9383375642767874</v>
+        <v>0.9366227947834742</v>
       </c>
     </row>
     <row r="9">
@@ -3548,19 +3548,19 @@
         <v>4156</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1023</v>
+        <v>936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10133</v>
+        <v>9772</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004086529382408907</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001006210584414149</v>
+        <v>0.0009208137698321019</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.009964339153628685</v>
+        <v>0.009609454925025308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3569,19 +3569,19 @@
         <v>4250</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9809</v>
+        <v>10086</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00411777890423122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0009651915865089315</v>
+        <v>0.0009633623406272347</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009502825124763185</v>
+        <v>0.009771329280833296</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3590,19 +3590,19 @@
         <v>8406</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3505</v>
+        <v>3912</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14961</v>
+        <v>15778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004102270552645668</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001710420069284899</v>
+        <v>0.001909225221520455</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007301134603989157</v>
+        <v>0.007699865415391975</v>
       </c>
     </row>
     <row r="11">
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5402</v>
+        <v>5001</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0009811283059540142</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.005312029661434218</v>
+        <v>0.004917396508608536</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -3640,19 +3640,19 @@
         <v>11039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5082</v>
+        <v>5126</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19247</v>
+        <v>19763</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01069505290724888</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004923778185774908</v>
+        <v>0.004966316625357087</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01864672425023573</v>
+        <v>0.01914722059351406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -3661,19 +3661,19 @@
         <v>12037</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6047</v>
+        <v>6016</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>21510</v>
+        <v>21748</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005874276485484224</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.002950997621669409</v>
+        <v>0.002935826997144168</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01049732116058402</v>
+        <v>0.01061357155384719</v>
       </c>
     </row>
     <row r="12">
@@ -3690,19 +3690,19 @@
         <v>19269</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11005</v>
+        <v>11570</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32501</v>
+        <v>31313</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01894831323984142</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01082169899251204</v>
+        <v>0.01137744298132052</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03196049029993312</v>
+        <v>0.03079180676671275</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -3711,19 +3711,19 @@
         <v>24413</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15688</v>
+        <v>16336</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35680</v>
+        <v>37453</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02365220589367116</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01519873622469815</v>
+        <v>0.01582667402085723</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03456796319088611</v>
+        <v>0.03628542742622405</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -3732,19 +3732,19 @@
         <v>43682</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30771</v>
+        <v>31277</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57676</v>
+        <v>60638</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02131778229797313</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01501700041915019</v>
+        <v>0.01526393792945789</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02814676450194712</v>
+        <v>0.029592509804397</v>
       </c>
     </row>
     <row r="13">
@@ -3761,19 +3761,19 @@
         <v>22814</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14382</v>
+        <v>14645</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34199</v>
+        <v>34150</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02243493058651258</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01414263918646718</v>
+        <v>0.01440123640009167</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03363011871713674</v>
+        <v>0.03358184071157243</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -3782,19 +3782,19 @@
         <v>43488</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31234</v>
+        <v>30068</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57989</v>
+        <v>57310</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04213220893171499</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03025995038416894</v>
+        <v>0.02913038877313848</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05618132427192148</v>
+        <v>0.05552286921355271</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -3803,19 +3803,19 @@
         <v>66303</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49554</v>
+        <v>50860</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82212</v>
+        <v>84668</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03235694518231039</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0241835007352819</v>
+        <v>0.02482048393503962</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04012105439446324</v>
+        <v>0.04131952148468038</v>
       </c>
     </row>
     <row r="14">
@@ -3832,19 +3832,19 @@
         <v>969681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>954801</v>
+        <v>952056</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>982838</v>
+        <v>982218</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9535490984852831</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9389160220209931</v>
+        <v>0.9362167945768024</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9664871957518093</v>
+        <v>0.965877645545935</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>865</v>
@@ -3853,19 +3853,19 @@
         <v>948993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>930285</v>
+        <v>929903</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>966685</v>
+        <v>965814</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9194027533631337</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9012785701639573</v>
+        <v>0.9009078627265288</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9365429992014443</v>
+        <v>0.9356990330428763</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1757</v>
@@ -3874,19 +3874,19 @@
         <v>1918674</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1896072</v>
+        <v>1895561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1940678</v>
+        <v>1940670</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9363487254815865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9253182925996589</v>
+        <v>0.9250692213920908</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9470870147976541</v>
+        <v>0.9470832781340861</v>
       </c>
     </row>
     <row r="15">
@@ -3978,19 +3978,19 @@
         <v>6019</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1959</v>
+        <v>2010</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14799</v>
+        <v>14697</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007944363113756155</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002585606984949701</v>
+        <v>0.002653294061714494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01953343346916336</v>
+        <v>0.01939902700309898</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -3999,19 +3999,19 @@
         <v>9185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4175</v>
+        <v>4230</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16537</v>
+        <v>16429</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0118334286392181</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005378472262501323</v>
+        <v>0.005450109669550901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02130610151343324</v>
+        <v>0.02116651163903832</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -4020,19 +4020,19 @@
         <v>15204</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8941</v>
+        <v>8992</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25015</v>
+        <v>26196</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009912424262272592</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005829098501781428</v>
+        <v>0.005862292684770751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01630903667679388</v>
+        <v>0.01707927009098121</v>
       </c>
     </row>
     <row r="17">
@@ -4049,19 +4049,19 @@
         <v>5108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1559</v>
+        <v>1038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13379</v>
+        <v>13816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006742002611264838</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00205748558740073</v>
+        <v>0.001370249011435983</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01765880867034731</v>
+        <v>0.01823567609184538</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -4070,19 +4070,19 @@
         <v>7600</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3132</v>
+        <v>3161</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16131</v>
+        <v>16629</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009791597542636761</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004035159963030605</v>
+        <v>0.004072279131834617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02078249288928305</v>
+        <v>0.02142369857019859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -4091,19 +4091,19 @@
         <v>12708</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6207</v>
+        <v>6238</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22490</v>
+        <v>23506</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008285249765073806</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004046639020354066</v>
+        <v>0.004066796453702713</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01466283683486625</v>
+        <v>0.01532524879818931</v>
       </c>
     </row>
     <row r="18">
@@ -4120,19 +4120,19 @@
         <v>13444</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7765</v>
+        <v>7717</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22665</v>
+        <v>21537</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01774483829706337</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01024905220285465</v>
+        <v>0.0101860326467798</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02991575529613717</v>
+        <v>0.02842643863117627</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -4141,19 +4141,19 @@
         <v>29136</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19669</v>
+        <v>19870</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42350</v>
+        <v>41919</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03753751418668803</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02534063008903606</v>
+        <v>0.02559971653319691</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05456139054059347</v>
+        <v>0.05400604143278308</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>41</v>
@@ -4162,19 +4162,19 @@
         <v>42580</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31887</v>
+        <v>30286</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>58191</v>
+        <v>56394</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02776091958664807</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02078924562856361</v>
+        <v>0.01974561318942294</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0379386870313358</v>
+        <v>0.03676746439380466</v>
       </c>
     </row>
     <row r="19">
@@ -4191,19 +4191,19 @@
         <v>44787</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33002</v>
+        <v>31759</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62249</v>
+        <v>62960</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05911558155905315</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04355963597287856</v>
+        <v>0.04191979336989163</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08216381424277976</v>
+        <v>0.08310145462941136</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -4212,19 +4212,19 @@
         <v>54790</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42298</v>
+        <v>41468</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71953</v>
+        <v>71182</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07058929825578542</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05449539118232503</v>
+        <v>0.05342518128875941</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09270129869627627</v>
+        <v>0.09170766143480219</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -4233,19 +4233,19 @@
         <v>99577</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80676</v>
+        <v>79539</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>121265</v>
+        <v>120957</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06492185453442066</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0525985562635554</v>
+        <v>0.05185705957733825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07906129033187309</v>
+        <v>0.07886104239978255</v>
       </c>
     </row>
     <row r="20">
@@ -4262,19 +4262,19 @@
         <v>688265</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>669282</v>
+        <v>667685</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>703856</v>
+        <v>704516</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9084532144188625</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8833968084677639</v>
+        <v>0.8812897420384582</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9290318522752625</v>
+        <v>0.9299028753992531</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>612</v>
@@ -4283,19 +4283,19 @@
         <v>675471</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>655082</v>
+        <v>654427</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>693048</v>
+        <v>694623</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8702481613756717</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8439802983315586</v>
+        <v>0.8431360382368832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8928937804977981</v>
+        <v>0.8949230901807218</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1241</v>
@@ -4304,19 +4304,19 @@
         <v>1363736</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1335100</v>
+        <v>1337013</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1389515</v>
+        <v>1387756</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8891195518515849</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8704495382395937</v>
+        <v>0.8716970766849292</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9059270706425792</v>
+        <v>0.9047799961924686</v>
       </c>
     </row>
     <row r="21">
@@ -4408,19 +4408,19 @@
         <v>6787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2694</v>
+        <v>2223</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14505</v>
+        <v>14395</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007160764188808399</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002842713584453727</v>
+        <v>0.002345369868161917</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01530463315424734</v>
+        <v>0.01518880393702045</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4429,19 +4429,19 @@
         <v>14268</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8198</v>
+        <v>7979</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23482</v>
+        <v>23364</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01356419526753404</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007793976342243122</v>
+        <v>0.007585062274960941</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02232334287449381</v>
+        <v>0.02221158446570964</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -4450,19 +4450,19 @@
         <v>21055</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13030</v>
+        <v>13003</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32533</v>
+        <v>32024</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01052925768128842</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006515955107545768</v>
+        <v>0.006502850919714616</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01626943961714959</v>
+        <v>0.01601465545523094</v>
       </c>
     </row>
     <row r="23">
@@ -4479,19 +4479,19 @@
         <v>6234</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2412</v>
+        <v>2864</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13208</v>
+        <v>13480</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006578155830715436</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002545482971146161</v>
+        <v>0.003022350162208322</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01393625403288389</v>
+        <v>0.01422352721343402</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -4500,19 +4500,19 @@
         <v>12929</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7085</v>
+        <v>6850</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22410</v>
+        <v>21204</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01229118551831936</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006735221828798865</v>
+        <v>0.006512342318947968</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02130426801859922</v>
+        <v>0.02015736010034293</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -4521,19 +4521,19 @@
         <v>19163</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11321</v>
+        <v>11950</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>30112</v>
+        <v>29518</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.009583467059718128</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.00566175984308228</v>
+        <v>0.005976051708314604</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01505894056391064</v>
+        <v>0.01476161497592075</v>
       </c>
     </row>
     <row r="24">
@@ -4550,19 +4550,19 @@
         <v>27389</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18276</v>
+        <v>17995</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38653</v>
+        <v>39821</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02889941436597088</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01928409811837861</v>
+        <v>0.01898708776319101</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04078462450168415</v>
+        <v>0.04201686134125199</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -4571,19 +4571,19 @@
         <v>42874</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31042</v>
+        <v>31452</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>58686</v>
+        <v>57826</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04075860002635044</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02951029399885551</v>
+        <v>0.02989981622623365</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05579055887224086</v>
+        <v>0.05497272419145702</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>65</v>
@@ -4592,19 +4592,19 @@
         <v>70263</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>54926</v>
+        <v>55162</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>88339</v>
+        <v>89795</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0351378807806123</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02746782176757796</v>
+        <v>0.02758602027571276</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04417745231785119</v>
+        <v>0.04490547473035095</v>
       </c>
     </row>
     <row r="25">
@@ -4621,19 +4621,19 @@
         <v>36118</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24883</v>
+        <v>25740</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50395</v>
+        <v>49775</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03811017106055384</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02625466232870046</v>
+        <v>0.02715900596696764</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05317355089787484</v>
+        <v>0.05251970756848366</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>50</v>
@@ -4642,19 +4642,19 @@
         <v>52129</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39084</v>
+        <v>38833</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>68125</v>
+        <v>68198</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04955712463537264</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03715568742763412</v>
+        <v>0.03691678429932007</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06476417436567042</v>
+        <v>0.06483344150156616</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -4663,19 +4663,19 @@
         <v>88248</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>71714</v>
+        <v>70854</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>110545</v>
+        <v>106731</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04413178480972092</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03586355774396199</v>
+        <v>0.03543360271297392</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05528226941838412</v>
+        <v>0.05337504980822978</v>
       </c>
     </row>
     <row r="26">
@@ -4692,19 +4692,19 @@
         <v>871210</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>852230</v>
+        <v>852771</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>885803</v>
+        <v>885710</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9192514945539515</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8992248423066396</v>
+        <v>0.8997954945113192</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9346485446794079</v>
+        <v>0.934550138135205</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>888</v>
@@ -4713,19 +4713,19 @@
         <v>929700</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>906301</v>
+        <v>907180</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>949448</v>
+        <v>950311</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8838288945524235</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8615838626752592</v>
+        <v>0.8624192618452415</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9026018731415224</v>
+        <v>0.9034224091826394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1725</v>
@@ -4734,19 +4734,19 @@
         <v>1800911</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1772220</v>
+        <v>1769712</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1826240</v>
+        <v>1825223</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9006176096686602</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8862694096768707</v>
+        <v>0.8850154227425646</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9132844914419952</v>
+        <v>0.9127756746249422</v>
       </c>
     </row>
     <row r="27">
@@ -4838,19 +4838,19 @@
         <v>20914</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12791</v>
+        <v>12416</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>34034</v>
+        <v>34188</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006107083326882493</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003734957239384686</v>
+        <v>0.003625446144855856</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009938128516870873</v>
+        <v>0.009983116019099517</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -4859,19 +4859,19 @@
         <v>32612</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22210</v>
+        <v>22869</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>44953</v>
+        <v>45695</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009167675329444494</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006243337908919532</v>
+        <v>0.006428813333943991</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01263671147290316</v>
+        <v>0.0128452232994018</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>49</v>
@@ -4880,19 +4880,19 @@
         <v>53527</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39169</v>
+        <v>40872</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>69780</v>
+        <v>69774</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.00766647261588287</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005610089829651239</v>
+        <v>0.005854061030095735</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009994366832615188</v>
+        <v>0.009993537652470089</v>
       </c>
     </row>
     <row r="29">
@@ -4909,19 +4909,19 @@
         <v>12340</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6822</v>
+        <v>6517</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22930</v>
+        <v>22007</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003603361834147746</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001992040532671684</v>
+        <v>0.001902962196844551</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.006695577049036256</v>
+        <v>0.006426077750747472</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -4930,19 +4930,19 @@
         <v>34470</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>24224</v>
+        <v>24076</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>49041</v>
+        <v>49173</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009689995250184128</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006809656560143854</v>
+        <v>0.006767981158347917</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01378608946290958</v>
+        <v>0.01382308806140802</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -4951,19 +4951,19 @@
         <v>46810</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33890</v>
+        <v>34943</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>62873</v>
+        <v>64556</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006704536687605407</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004853978176414948</v>
+        <v>0.005004747415439635</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009005098683065878</v>
+        <v>0.009246183696796544</v>
       </c>
     </row>
     <row r="30">
@@ -4980,19 +4980,19 @@
         <v>66538</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>52390</v>
+        <v>51566</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>85551</v>
+        <v>84490</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01942941780879897</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01529831010343747</v>
+        <v>0.0150576472307229</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02498132406985686</v>
+        <v>0.02467163616054763</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>112</v>
@@ -5001,19 +5001,19 @@
         <v>122331</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>103345</v>
+        <v>101366</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>147367</v>
+        <v>147767</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03438843252838754</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02905135829902753</v>
+        <v>0.02849511969607465</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04142652137995778</v>
+        <v>0.04153898416814437</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>175</v>
@@ -5022,19 +5022,19 @@
         <v>188868</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>161217</v>
+        <v>161910</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>219632</v>
+        <v>217982</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02705112214188177</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02309077267902683</v>
+        <v>0.02318999797452723</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03145739259633229</v>
+        <v>0.03122096234417032</v>
       </c>
     </row>
     <row r="31">
@@ -5051,19 +5051,19 @@
         <v>129051</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>107916</v>
+        <v>107247</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>154082</v>
+        <v>154903</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03768383428516198</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03151214050551871</v>
+        <v>0.03131679339825753</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04499294810624367</v>
+        <v>0.04523277946387727</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>173</v>
@@ -5072,19 +5072,19 @@
         <v>187457</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>161426</v>
+        <v>161673</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>215023</v>
+        <v>218970</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05269614652269747</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04537847382840753</v>
+        <v>0.04544804808821766</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06044517006735894</v>
+        <v>0.06155481923983953</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>291</v>
@@ -5093,19 +5093,19 @@
         <v>316508</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>283265</v>
+        <v>283098</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>353216</v>
+        <v>355187</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04533269401123646</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04057130189398815</v>
+        <v>0.04054739526504663</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05059026326275536</v>
+        <v>0.05087255694930859</v>
       </c>
     </row>
     <row r="32">
@@ -5122,19 +5122,19 @@
         <v>3195737</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3160372</v>
+        <v>3163351</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3223993</v>
+        <v>3225744</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9331763027450088</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9228494447711492</v>
+        <v>0.9237192747736036</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9414271628163776</v>
+        <v>0.9419384425875664</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2950</v>
@@ -5143,19 +5143,19 @@
         <v>3180447</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3138303</v>
+        <v>3140009</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3214280</v>
+        <v>3215785</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8940577503692864</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8822105631003029</v>
+        <v>0.8826903393751285</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9035686380326236</v>
+        <v>0.9039917502042677</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5947</v>
@@ -5164,19 +5164,19 @@
         <v>6376184</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6322840</v>
+        <v>6332305</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6421775</v>
+        <v>6426825</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9132451745433935</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.905604848675421</v>
+        <v>0.9069605443496028</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9197751250008424</v>
+        <v>0.9204984387810239</v>
       </c>
     </row>
     <row r="33">
@@ -5508,19 +5508,19 @@
         <v>4098</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1093</v>
+        <v>1115</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10954</v>
+        <v>11780</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006092825813129067</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00162549528767283</v>
+        <v>0.001657471483698936</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01628728768206988</v>
+        <v>0.01751446311672456</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -5529,19 +5529,19 @@
         <v>7754</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3274</v>
+        <v>3288</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15831</v>
+        <v>14816</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01152454146270362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004866457855092327</v>
+        <v>0.004886690947732883</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02352936471286154</v>
+        <v>0.02201947932591424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -5550,19 +5550,19 @@
         <v>11852</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6177</v>
+        <v>6166</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21792</v>
+        <v>20683</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.008809220188308131</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004591495581226518</v>
+        <v>0.004583177544802208</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01619705015378428</v>
+        <v>0.01537293768294564</v>
       </c>
     </row>
     <row r="5">
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7295</v>
+        <v>7089</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003064470358964313</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01084697192713052</v>
+        <v>0.01054033128022819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -5600,19 +5600,19 @@
         <v>5907</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12367</v>
+        <v>12126</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.008779297807881758</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002986792341435522</v>
+        <v>0.003004461790629832</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01838021987490232</v>
+        <v>0.01802208062684481</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -5621,19 +5621,19 @@
         <v>7968</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3894</v>
+        <v>3647</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14997</v>
+        <v>15080</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00592244859988607</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002894524019028923</v>
+        <v>0.002710545709518362</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01114693651611245</v>
+        <v>0.01120846032650604</v>
       </c>
     </row>
     <row r="6">
@@ -5650,19 +5650,19 @@
         <v>10552</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5367</v>
+        <v>5235</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19993</v>
+        <v>18752</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01568967456893552</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007979682611548064</v>
+        <v>0.007783163873588745</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02972560632153833</v>
+        <v>0.0278815117384037</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -5671,19 +5671,19 @@
         <v>11192</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5826</v>
+        <v>5840</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19756</v>
+        <v>19210</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01663469629017622</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008659118692079856</v>
+        <v>0.008679638123403692</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0293622763936028</v>
+        <v>0.02855095553502561</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -5692,19 +5692,19 @@
         <v>21745</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13829</v>
+        <v>13707</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32549</v>
+        <v>32760</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01616227877976186</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01027848434089493</v>
+        <v>0.01018825687058237</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02419264916026301</v>
+        <v>0.02434970674002767</v>
       </c>
     </row>
     <row r="7">
@@ -5721,19 +5721,19 @@
         <v>18643</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11569</v>
+        <v>11325</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28906</v>
+        <v>29487</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02771903022054544</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01720054570489766</v>
+        <v>0.01683898998114335</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04297785426632385</v>
+        <v>0.04384196076155752</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -5742,19 +5742,19 @@
         <v>15832</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9124</v>
+        <v>8813</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24631</v>
+        <v>24634</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02352989959503844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01356057448960476</v>
+        <v>0.01309815553011685</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03660733104685548</v>
+        <v>0.03661138318383469</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -5763,19 +5763,19 @@
         <v>34475</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24033</v>
+        <v>24000</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47352</v>
+        <v>48492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02562405110121159</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01786277581302364</v>
+        <v>0.01783809205124615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03519482173391903</v>
+        <v>0.03604264511864704</v>
       </c>
     </row>
     <row r="8">
@@ -5792,19 +5792,19 @@
         <v>637219</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>621733</v>
+        <v>622828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>647113</v>
+        <v>647364</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9474339990384256</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9244096181193955</v>
+        <v>0.9260380994961059</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9621460594811739</v>
+        <v>0.9625184113126887</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>626</v>
@@ -5813,19 +5813,19 @@
         <v>632153</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>618641</v>
+        <v>618423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>643631</v>
+        <v>642310</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9395315648442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9194488404111515</v>
+        <v>0.9191246181769376</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9565893372940025</v>
+        <v>0.9546259384034204</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1243</v>
@@ -5834,19 +5834,19 @@
         <v>1269372</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1248831</v>
+        <v>1251971</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1283575</v>
+        <v>1286488</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9434820013308324</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9282146257104515</v>
+        <v>0.930548582495192</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9540384829790554</v>
+        <v>0.9562035343741068</v>
       </c>
     </row>
     <row r="9">
@@ -5938,19 +5938,19 @@
         <v>8181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3732</v>
+        <v>3889</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16232</v>
+        <v>16827</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008008298114587423</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003653227351518902</v>
+        <v>0.003807313155129749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01588924223357707</v>
+        <v>0.01647186521270223</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -5959,19 +5959,19 @@
         <v>9357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4917</v>
+        <v>4405</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17920</v>
+        <v>16949</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008980735233959636</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004719254531718599</v>
+        <v>0.004228210494899979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01719942682031807</v>
+        <v>0.01626696010104193</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -5980,19 +5980,19 @@
         <v>17538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10334</v>
+        <v>10295</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28474</v>
+        <v>28536</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0084993124017732</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005007875489732488</v>
+        <v>0.004989379803716195</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01379898259036613</v>
+        <v>0.01382920635689343</v>
       </c>
     </row>
     <row r="11">
@@ -6009,19 +6009,19 @@
         <v>8181</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3358</v>
+        <v>3346</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15955</v>
+        <v>16809</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00800802405620284</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003287492852022833</v>
+        <v>0.003275269459117356</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01561795503988173</v>
+        <v>0.01645434610831999</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -6030,19 +6030,19 @@
         <v>9689</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4758</v>
+        <v>4817</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17901</v>
+        <v>16841</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00929915685374353</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004567010919035196</v>
+        <v>0.004622771367906882</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01718088410778647</v>
+        <v>0.01616384371377997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -6051,19 +6051,19 @@
         <v>17870</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11386</v>
+        <v>10557</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28074</v>
+        <v>28089</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008659957880629345</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005518092415484259</v>
+        <v>0.00511628257335809</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01360499682653382</v>
+        <v>0.0136123560755686</v>
       </c>
     </row>
     <row r="12">
@@ -6080,19 +6080,19 @@
         <v>19964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12581</v>
+        <v>12645</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>31335</v>
+        <v>30542</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01954256502657108</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01231523274459012</v>
+        <v>0.0123783956632898</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03067349449703361</v>
+        <v>0.0298972544262171</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -6101,19 +6101,19 @@
         <v>23874</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15584</v>
+        <v>15633</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>35418</v>
+        <v>35977</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02291316928668669</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0149575049058049</v>
+        <v>0.01500360889932976</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03399342629324531</v>
+        <v>0.03452920032020838</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -6122,19 +6122,19 @@
         <v>43838</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31963</v>
+        <v>32403</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>59222</v>
+        <v>58265</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02124448982478781</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0154896826104927</v>
+        <v>0.01570323053990484</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02870004191925736</v>
+        <v>0.02823603339441588</v>
       </c>
     </row>
     <row r="13">
@@ -6151,19 +6151,19 @@
         <v>43481</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32033</v>
+        <v>30940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60213</v>
+        <v>58362</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04256274149652776</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03135672402180386</v>
+        <v>0.03028700874847879</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05894197788427367</v>
+        <v>0.05713029351484958</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -6172,19 +6172,19 @@
         <v>36523</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26193</v>
+        <v>25671</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49502</v>
+        <v>49893</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03505410522195668</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02513917526024438</v>
+        <v>0.02463859372427226</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04751009697041273</v>
+        <v>0.04788567838909173</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -6193,19 +6193,19 @@
         <v>80004</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>64735</v>
+        <v>63904</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99600</v>
+        <v>100212</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03877139333154209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03137158982968819</v>
+        <v>0.03096898378991839</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04826783221813774</v>
+        <v>0.04856462893375329</v>
       </c>
     </row>
     <row r="14">
@@ -6222,19 +6222,19 @@
         <v>941758</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>920803</v>
+        <v>922107</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>958805</v>
+        <v>957563</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9218783713061109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.901365667755059</v>
+        <v>0.9026424334168233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9385662459150803</v>
+        <v>0.9373497145364192</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>900</v>
@@ -6243,19 +6243,19 @@
         <v>962474</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>943910</v>
+        <v>941619</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>977484</v>
+        <v>977087</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9237528334036534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9059356577022722</v>
+        <v>0.9037366757355947</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9381592843978347</v>
+        <v>0.9377778635598731</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1778</v>
@@ -6264,19 +6264,19 @@
         <v>1904232</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1880740</v>
+        <v>1877975</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1927325</v>
+        <v>1926538</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9228248465612675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9114404109759041</v>
+        <v>0.9101004563982816</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.934016502808737</v>
+        <v>0.9336350839525474</v>
       </c>
     </row>
     <row r="15">
@@ -6368,19 +6368,19 @@
         <v>4487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11937</v>
+        <v>10679</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005923522163720876</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001493927809206022</v>
+        <v>0.001481644592970421</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01576045541638357</v>
+        <v>0.0140985381569</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6389,19 +6389,19 @@
         <v>3334</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9866</v>
+        <v>8882</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004251992492323847</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001275928372555707</v>
+        <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01258456726801452</v>
+        <v>0.01132857994729131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6410,19 +6410,19 @@
         <v>7820</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3349</v>
+        <v>3679</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15710</v>
+        <v>15204</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005073343184056753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002172672628097689</v>
+        <v>0.002386763844234806</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01019159298014039</v>
+        <v>0.009863442700319858</v>
       </c>
     </row>
     <row r="17">
@@ -6439,19 +6439,19 @@
         <v>9678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5201</v>
+        <v>4326</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18232</v>
+        <v>17126</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01277740791030603</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00686648814221425</v>
+        <v>0.005711360981684681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02407097111081994</v>
+        <v>0.02261141368710782</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -6460,19 +6460,19 @@
         <v>3851</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9579</v>
+        <v>8729</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004911590913733759</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001255593032918851</v>
+        <v>0.001253166547486793</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01221765229832136</v>
+        <v>0.01113344508343376</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -6481,19 +6481,19 @@
         <v>13529</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7302</v>
+        <v>7179</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21799</v>
+        <v>21975</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008776669913964405</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004736967146701966</v>
+        <v>0.004657504574955647</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01414198978800354</v>
+        <v>0.01425612912369133</v>
       </c>
     </row>
     <row r="18">
@@ -6510,19 +6510,19 @@
         <v>24559</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15457</v>
+        <v>15467</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36904</v>
+        <v>37523</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03242497863584463</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02040785677136317</v>
+        <v>0.020420679706731</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04872338736172115</v>
+        <v>0.04953976132540927</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -6531,19 +6531,19 @@
         <v>31946</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22247</v>
+        <v>22405</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44342</v>
+        <v>45812</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04074680851652312</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02837627050775557</v>
+        <v>0.02857770726849425</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05655878189448219</v>
+        <v>0.05843273103121662</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>52</v>
@@ -6552,19 +6552,19 @@
         <v>56505</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42145</v>
+        <v>41596</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73161</v>
+        <v>72759</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03665765542164196</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02734172285476073</v>
+        <v>0.02698529465962846</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04746292240086201</v>
+        <v>0.04720254008000397</v>
       </c>
     </row>
     <row r="19">
@@ -6581,19 +6581,19 @@
         <v>76368</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59894</v>
+        <v>60268</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93536</v>
+        <v>95406</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1008264661421793</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07907618290935925</v>
+        <v>0.07956987909975433</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1234927870602003</v>
+        <v>0.125962032928908</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -6602,19 +6602,19 @@
         <v>55834</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41481</v>
+        <v>41980</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70867</v>
+        <v>71338</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0712166827862771</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05290887973671033</v>
+        <v>0.05354566187217883</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09039092087283304</v>
+        <v>0.09099125029416412</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>123</v>
@@ -6623,19 +6623,19 @@
         <v>132203</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110262</v>
+        <v>111315</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>155082</v>
+        <v>157874</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08576623967275801</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07153249665757545</v>
+        <v>0.07221558065171595</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1006092784969894</v>
+        <v>0.1024204221640834</v>
       </c>
     </row>
     <row r="20">
@@ -6652,19 +6652,19 @@
         <v>642330</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>621937</v>
+        <v>621148</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>661350</v>
+        <v>661966</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8480476251479492</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8211231842046484</v>
+        <v>0.8200821669242464</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8731592564641876</v>
+        <v>0.8739720973108549</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>644</v>
@@ -6673,19 +6673,19 @@
         <v>689043</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>669805</v>
+        <v>668772</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>706348</v>
+        <v>706211</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8788729252911421</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8543358325343151</v>
+        <v>0.8530177697372127</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9009457522483908</v>
+        <v>0.9007717428160615</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1234</v>
@@ -6694,19 +6694,19 @@
         <v>1331372</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1303079</v>
+        <v>1302798</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1357879</v>
+        <v>1358156</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8637260918075789</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8453708561343023</v>
+        <v>0.8451887661749111</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8809221585448582</v>
+        <v>0.8811016032141669</v>
       </c>
     </row>
     <row r="21">
@@ -6798,19 +6798,19 @@
         <v>6398</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2652</v>
+        <v>2725</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13033</v>
+        <v>14016</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006830598736200175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002830993420266577</v>
+        <v>0.00290880330579935</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01391343837653315</v>
+        <v>0.01496337573054302</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -6819,19 +6819,19 @@
         <v>12757</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6607</v>
+        <v>6986</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20713</v>
+        <v>21348</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01223527490179694</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006336711124120017</v>
+        <v>0.006700524470714586</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01986575282425994</v>
+        <v>0.02047434960456382</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -6840,19 +6840,19 @@
         <v>19156</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11185</v>
+        <v>11422</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30164</v>
+        <v>31352</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009677605835824237</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005650653072690807</v>
+        <v>0.005770556375487302</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01523906448016921</v>
+        <v>0.01583934099848985</v>
       </c>
     </row>
     <row r="23">
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5660</v>
+        <v>6458</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00200274643778006</v>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.006042952367601462</v>
+        <v>0.006894171792026733</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -6890,19 +6890,19 @@
         <v>9319</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3918</v>
+        <v>3762</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20557</v>
+        <v>19220</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008937838162314119</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003757675569325313</v>
+        <v>0.003608346554966541</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01971542605043023</v>
+        <v>0.01843345114765998</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -6911,19 +6911,19 @@
         <v>11195</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5113</v>
+        <v>5392</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>20745</v>
+        <v>22030</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005655926530599268</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002583012905299804</v>
+        <v>0.002724104858492353</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01048055766560466</v>
+        <v>0.01112994034533051</v>
       </c>
     </row>
     <row r="24">
@@ -6940,19 +6940,19 @@
         <v>14705</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7934</v>
+        <v>8594</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23920</v>
+        <v>24857</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01569829177191012</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.00846961180527509</v>
+        <v>0.009175024196334616</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02553633294281054</v>
+        <v>0.02653694925570547</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -6961,19 +6961,19 @@
         <v>13332</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7261</v>
+        <v>7605</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23329</v>
+        <v>22497</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01278661986699427</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006964334082176313</v>
+        <v>0.007293450148601877</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02237414323329391</v>
+        <v>0.02157596043890991</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -6982,19 +6982,19 @@
         <v>28037</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18210</v>
+        <v>19091</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>40850</v>
+        <v>40680</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.014164517993226</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009200037056513323</v>
+        <v>0.009644776087989292</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02063785410238919</v>
+        <v>0.0205519916964917</v>
       </c>
     </row>
     <row r="25">
@@ -7011,19 +7011,19 @@
         <v>37673</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27307</v>
+        <v>26211</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52184</v>
+        <v>50255</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04021860781676813</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02915250729141139</v>
+        <v>0.0279824825699035</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05571060207612121</v>
+        <v>0.05365148680360709</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -7032,19 +7032,19 @@
         <v>33123</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22024</v>
+        <v>21667</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>46709</v>
+        <v>47493</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03176742497160302</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0211226016136113</v>
+        <v>0.02078075493693576</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04479808004218357</v>
+        <v>0.04554961835210326</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>64</v>
@@ -7053,19 +7053,19 @@
         <v>70796</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54643</v>
+        <v>54787</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>89558</v>
+        <v>88426</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03576680037758006</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02760607789159931</v>
+        <v>0.02767905879532425</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04524548823947848</v>
+        <v>0.04467384626318655</v>
       </c>
     </row>
     <row r="26">
@@ -7082,19 +7082,19 @@
         <v>876050</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>858524</v>
+        <v>860343</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>888232</v>
+        <v>891369</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9352497552373416</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9165390231263904</v>
+        <v>0.9184805864547331</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9482542523054019</v>
+        <v>0.9516039511915851</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>899</v>
@@ -7103,19 +7103,19 @@
         <v>974135</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>955558</v>
+        <v>956055</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>991116</v>
+        <v>990310</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9342728420972917</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.916455406758054</v>
+        <v>0.9169322335133717</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9505583341643256</v>
+        <v>0.9497854292680502</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1772</v>
@@ -7124,19 +7124,19 @@
         <v>1850186</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1824487</v>
+        <v>1824011</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1870818</v>
+        <v>1871202</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9347351492627705</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9217518591471315</v>
+        <v>0.9215113060579515</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9451586391623783</v>
+        <v>0.9453526327767068</v>
       </c>
     </row>
     <row r="27">
@@ -7228,19 +7228,19 @@
         <v>23164</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14984</v>
+        <v>14352</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>36317</v>
+        <v>35540</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006836457022472408</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004422249214774474</v>
+        <v>0.004235749708379873</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01071834841291599</v>
+        <v>0.01048918291587094</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>31</v>
@@ -7249,19 +7249,19 @@
         <v>33202</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22871</v>
+        <v>23582</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>46394</v>
+        <v>46938</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.009375380043707667</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006458014149263358</v>
+        <v>0.006659015528282826</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0131003104012956</v>
+        <v>0.01325384549253445</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>51</v>
@@ -7270,19 +7270,19 @@
         <v>56366</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>41362</v>
+        <v>41437</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>73455</v>
+        <v>73252</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008133977646164975</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005968748295949007</v>
+        <v>0.005979569832445684</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0106000561402793</v>
+        <v>0.01057077155575752</v>
       </c>
     </row>
     <row r="29">
@@ -7299,19 +7299,19 @@
         <v>21796</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13607</v>
+        <v>13847</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33159</v>
+        <v>34613</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006432697273491579</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004015901565750695</v>
+        <v>0.004086885236250683</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.009786364996715795</v>
+        <v>0.01021543134422939</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -7320,19 +7320,19 @@
         <v>28766</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>20068</v>
+        <v>19459</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>41341</v>
+        <v>42795</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008122683522044835</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005666635681809453</v>
+        <v>0.005494581437985985</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01167349827782698</v>
+        <v>0.01208417513021534</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -7341,19 +7341,19 @@
         <v>50562</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>37306</v>
+        <v>37921</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>65684</v>
+        <v>67088</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007296367417451999</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005383457103341611</v>
+        <v>0.00547225318677795</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009478568087728956</v>
+        <v>0.009681242783424448</v>
       </c>
     </row>
     <row r="30">
@@ -7370,19 +7370,19 @@
         <v>69780</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>53458</v>
+        <v>53724</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>88575</v>
+        <v>88635</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02059476755652865</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01577731500922379</v>
+        <v>0.01585594332164369</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02614166925854572</v>
+        <v>0.02615952778961535</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>76</v>
@@ -7391,19 +7391,19 @@
         <v>80344</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>64570</v>
+        <v>63832</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>100426</v>
+        <v>99543</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02268689717764217</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01823274235095335</v>
+        <v>0.01802432567752006</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0283575778503566</v>
+        <v>0.02810801188926097</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>140</v>
@@ -7412,19 +7412,19 @@
         <v>150125</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>126970</v>
+        <v>127412</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>177860</v>
+        <v>176951</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0216639537067697</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01832260561749265</v>
+        <v>0.01838634046588821</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02566641749114148</v>
+        <v>0.02553521670240114</v>
       </c>
     </row>
     <row r="31">
@@ -7441,19 +7441,19 @@
         <v>176165</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>152410</v>
+        <v>150024</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>208202</v>
+        <v>202400</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05199265167724117</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04498180029623167</v>
+        <v>0.04427753915720764</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06144809028281876</v>
+        <v>0.0597354944698961</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>132</v>
@@ -7462,19 +7462,19 @@
         <v>141313</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>116985</v>
+        <v>118291</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>166004</v>
+        <v>166190</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03990267116631425</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03303330968848738</v>
+        <v>0.03340213537682453</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04687478986270333</v>
+        <v>0.04692725463610779</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>295</v>
@@ -7483,19 +7483,19 @@
         <v>317477</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>284949</v>
+        <v>285421</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>353880</v>
+        <v>354404</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04581404802452519</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04111999204364161</v>
+        <v>0.04118814213655484</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05106725854443799</v>
+        <v>0.05114275853619021</v>
       </c>
     </row>
     <row r="32">
@@ -7512,19 +7512,19 @@
         <v>3097357</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3063075</v>
+        <v>3063629</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3130874</v>
+        <v>3130381</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9141434264702661</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9040253186233623</v>
+        <v>0.9041889843341367</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9240353213891349</v>
+        <v>0.9238898867247409</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3069</v>
@@ -7533,19 +7533,19 @@
         <v>3257805</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3225027</v>
+        <v>3223362</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3292389</v>
+        <v>3289136</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9199123680902911</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9106568278806162</v>
+        <v>0.9101864465325622</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.929677796522877</v>
+        <v>0.9287592863058971</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6027</v>
@@ -7554,19 +7554,19 @@
         <v>6355162</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6305649</v>
+        <v>6309929</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6402825</v>
+        <v>6404870</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9170916532050881</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9099466985919472</v>
+        <v>0.9105642389430801</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9239697782876362</v>
+        <v>0.9242649197627956</v>
       </c>
     </row>
     <row r="33">
@@ -7898,19 +7898,19 @@
         <v>2973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>856</v>
+        <v>878</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9304</v>
+        <v>8143</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004304729806925231</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001239831750395528</v>
+        <v>0.001271106684854779</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01347071145505803</v>
+        <v>0.01178972209627768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -7919,19 +7919,19 @@
         <v>9122</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4696</v>
+        <v>4887</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16726</v>
+        <v>17987</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01244937327063556</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006409103553444254</v>
+        <v>0.006669733340498888</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02282785703327391</v>
+        <v>0.02454816702721145</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -7940,19 +7940,19 @@
         <v>12095</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6510</v>
+        <v>6895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21075</v>
+        <v>20622</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.008497245173993268</v>
+        <v>0.00849724517399327</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004573560224555436</v>
+        <v>0.004844094737202725</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01480606484343531</v>
+        <v>0.01448740390698124</v>
       </c>
     </row>
     <row r="5">
@@ -7969,19 +7969,19 @@
         <v>4218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1684</v>
+        <v>1557</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9228</v>
+        <v>9022</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006106571514106795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002438581466881616</v>
+        <v>0.002254724865117895</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01335952705622769</v>
+        <v>0.01306246567902182</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -7990,19 +7990,19 @@
         <v>9131</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5199</v>
+        <v>5040</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17164</v>
+        <v>16971</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01246156403166298</v>
+        <v>0.01246156403166297</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007096019639049982</v>
+        <v>0.006879138801410046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02342494384430916</v>
+        <v>0.02316168394062918</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -8011,19 +8011,19 @@
         <v>13349</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7988</v>
+        <v>8179</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21869</v>
+        <v>21507</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.009377850840963804</v>
+        <v>0.009377850840963806</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.005611911190936531</v>
+        <v>0.005745629187231658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01536389823066821</v>
+        <v>0.01510902447875785</v>
       </c>
     </row>
     <row r="6">
@@ -8040,19 +8040,19 @@
         <v>28640</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19414</v>
+        <v>19555</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41088</v>
+        <v>41400</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04146412143944071</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02810742502224477</v>
+        <v>0.02831196524379326</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05948594872853397</v>
+        <v>0.05993826179441707</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>56</v>
@@ -8061,19 +8061,19 @@
         <v>32136</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24195</v>
+        <v>24069</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43332</v>
+        <v>42735</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04385784808205397</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03302028033386534</v>
+        <v>0.03284915345238348</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05913828174664388</v>
+        <v>0.05832381281860025</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>87</v>
@@ -8082,19 +8082,19 @@
         <v>60775</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48515</v>
+        <v>48405</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76277</v>
+        <v>75879</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.0426963099052013</v>
+        <v>0.04269630990520131</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03408341798109665</v>
+        <v>0.03400608929485401</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0535870095208847</v>
+        <v>0.05330726370919609</v>
       </c>
     </row>
     <row r="7">
@@ -8111,19 +8111,19 @@
         <v>54655</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40366</v>
+        <v>42914</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69386</v>
+        <v>70954</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07912918294660251</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05844065057373248</v>
+        <v>0.0621304555201642</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1004566080627899</v>
+        <v>0.1027255225227999</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -8132,19 +8132,19 @@
         <v>65889</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54653</v>
+        <v>54965</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78497</v>
+        <v>77932</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08992385049176028</v>
+        <v>0.08992385049176024</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07458875870619922</v>
+        <v>0.07501456359673402</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1071310331539339</v>
+        <v>0.1063599620837959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>192</v>
@@ -8153,19 +8153,19 @@
         <v>120544</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104673</v>
+        <v>104315</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>140055</v>
+        <v>141028</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08468581777869956</v>
+        <v>0.08468581777869957</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0735356908262188</v>
+        <v>0.07328442071001652</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09839227563258678</v>
+        <v>0.09907618110906655</v>
       </c>
     </row>
     <row r="8">
@@ -8182,19 +8182,19 @@
         <v>600224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>582633</v>
+        <v>578693</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>616510</v>
+        <v>616708</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8689953942929247</v>
+        <v>0.8689953942929249</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8435271127333973</v>
+        <v>0.8378232261045937</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8925745379535368</v>
+        <v>0.8928603282522936</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1027</v>
@@ -8203,19 +8203,19 @@
         <v>616444</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>599531</v>
+        <v>599774</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>631370</v>
+        <v>631968</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8413073641238873</v>
+        <v>0.8413073641238872</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8182238522713875</v>
+        <v>0.8185555291195618</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8616769485431689</v>
+        <v>0.8624933785299098</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1654</v>
@@ -8224,19 +8224,19 @@
         <v>1216667</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1193669</v>
+        <v>1192054</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1239151</v>
+        <v>1241461</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8547427763011418</v>
+        <v>0.854742776301142</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8385858150441337</v>
+        <v>0.8374509073347954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8705380149177142</v>
+        <v>0.8721611059059027</v>
       </c>
     </row>
     <row r="9">
@@ -8328,19 +8328,19 @@
         <v>9819</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3667</v>
+        <v>4162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21142</v>
+        <v>21174</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.009360696187732876</v>
+        <v>0.009360696187732878</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003495618398198513</v>
+        <v>0.003967822235791596</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02015595804909034</v>
+        <v>0.02018620613030372</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -8349,19 +8349,19 @@
         <v>12502</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7372</v>
+        <v>7163</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19919</v>
+        <v>19899</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01168337689755819</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006889220963916983</v>
+        <v>0.006693813236547708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01861400273761158</v>
+        <v>0.01859517784311937</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -8370,19 +8370,19 @@
         <v>22321</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13797</v>
+        <v>14253</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34616</v>
+        <v>36010</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01053364426211999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00651105918149004</v>
+        <v>0.006726010603841135</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01633604314523247</v>
+        <v>0.01699357035049735</v>
       </c>
     </row>
     <row r="11">
@@ -8399,19 +8399,19 @@
         <v>9547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4831</v>
+        <v>4857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17467</v>
+        <v>16952</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.009101391362852538</v>
+        <v>0.00910139136285254</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004605791005476481</v>
+        <v>0.004630052893591262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01665271274314815</v>
+        <v>0.01616103951467861</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -8420,19 +8420,19 @@
         <v>15807</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9446</v>
+        <v>9566</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29010</v>
+        <v>26237</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01477130100452425</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008827175864697872</v>
+        <v>0.008939358013606501</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0271094983657452</v>
+        <v>0.02451804109756181</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -8441,19 +8441,19 @@
         <v>25353</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>16796</v>
+        <v>16601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39527</v>
+        <v>37172</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01196468185646839</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007926215947010474</v>
+        <v>0.007834330910927851</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01865346466711753</v>
+        <v>0.01754225886217773</v>
       </c>
     </row>
     <row r="12">
@@ -8470,19 +8470,19 @@
         <v>26524</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17515</v>
+        <v>17346</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41392</v>
+        <v>39434</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02528680565274617</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01669824568520513</v>
+        <v>0.01653740547160985</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03946193522199537</v>
+        <v>0.03759543585108428</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -8491,19 +8491,19 @@
         <v>28259</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19201</v>
+        <v>20118</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38334</v>
+        <v>38741</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.02640783273143957</v>
+        <v>0.02640783273143956</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01794321421971593</v>
+        <v>0.01879972888165005</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03582266344457286</v>
+        <v>0.03620318815653546</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>65</v>
@@ -8512,19 +8512,19 @@
         <v>54783</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42390</v>
+        <v>41772</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>71562</v>
+        <v>70734</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02585292158410383</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02000450915829755</v>
+        <v>0.01971302458343314</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03377133580529829</v>
+        <v>0.03338056986019106</v>
       </c>
     </row>
     <row r="13">
@@ -8541,19 +8541,19 @@
         <v>107411</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86215</v>
+        <v>87568</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>131115</v>
+        <v>131585</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1024017096297989</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08219405273053616</v>
+        <v>0.08348454372179012</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1250008328142831</v>
+        <v>0.1254487970473307</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>198</v>
@@ -8562,19 +8562,19 @@
         <v>128488</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>109880</v>
+        <v>112268</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146786</v>
+        <v>148731</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1200713811888622</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1026824501631808</v>
+        <v>0.1049141280078258</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1371707628108028</v>
+        <v>0.1389887647077266</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>301</v>
@@ -8583,19 +8583,19 @@
         <v>235899</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>208010</v>
+        <v>207541</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>268581</v>
+        <v>265264</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1113248505258262</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09816352329238633</v>
+        <v>0.09794213498258582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.12674801706546</v>
+        <v>0.1251829330134785</v>
       </c>
     </row>
     <row r="14">
@@ -8612,19 +8612,19 @@
         <v>895617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>868056</v>
+        <v>869289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>919291</v>
+        <v>921220</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8538493971668696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8275733884098321</v>
+        <v>0.8287488266495255</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.876419534856068</v>
+        <v>0.8782585380475818</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1242</v>
@@ -8633,19 +8633,19 @@
         <v>885041</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>862492</v>
+        <v>860690</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>907773</v>
+        <v>904201</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8270661081776158</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8059942867280709</v>
+        <v>0.8043101999714073</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8483094516113786</v>
+        <v>0.8449712234527849</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2059</v>
@@ -8654,19 +8654,19 @@
         <v>1780658</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1748159</v>
+        <v>1746364</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1816392</v>
+        <v>1814975</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8403239017714815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8249868068570393</v>
+        <v>0.8241398504423391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8571871345656347</v>
+        <v>0.856518549038343</v>
       </c>
     </row>
     <row r="15">
@@ -8758,19 +8758,19 @@
         <v>9243</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3594</v>
+        <v>3533</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19267</v>
+        <v>19116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01150913270080497</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004475275995841774</v>
+        <v>0.004399256415538543</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0239909888702968</v>
+        <v>0.02380324714535626</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -8779,19 +8779,19 @@
         <v>8323</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4593</v>
+        <v>4385</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14438</v>
+        <v>14293</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01024704371458268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005654040000996071</v>
+        <v>0.005398173197123653</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01777512436588981</v>
+        <v>0.01759694694494273</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>19</v>
@@ -8800,19 +8800,19 @@
         <v>17566</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10131</v>
+        <v>10740</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28736</v>
+        <v>27996</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01087449973070415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006271521549673831</v>
+        <v>0.006648898110928892</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01778964956171585</v>
+        <v>0.01733117523641683</v>
       </c>
     </row>
     <row r="17">
@@ -8829,19 +8829,19 @@
         <v>6289</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2497</v>
+        <v>2532</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13779</v>
+        <v>13587</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.00783168308841072</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003108800065756473</v>
+        <v>0.00315333390715101</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01715775036856243</v>
+        <v>0.01691924714462924</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -8850,19 +8850,19 @@
         <v>12518</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6560</v>
+        <v>7037</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23421</v>
+        <v>23051</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.01541138004610768</v>
+        <v>0.01541138004610769</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00807624231022998</v>
+        <v>0.008663188765158512</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02883490175311447</v>
+        <v>0.02837882982876324</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -8871,19 +8871,19 @@
         <v>18807</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11094</v>
+        <v>11850</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32540</v>
+        <v>31413</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01164308279575287</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006867730088878909</v>
+        <v>0.007335815489767709</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02014459637958772</v>
+        <v>0.01944698903686341</v>
       </c>
     </row>
     <row r="18">
@@ -8900,19 +8900,19 @@
         <v>46732</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34389</v>
+        <v>33211</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>63137</v>
+        <v>62920</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05819093328463439</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04282195137220727</v>
+        <v>0.04135516315746397</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07861871273845877</v>
+        <v>0.07834887429969438</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>75</v>
@@ -8921,19 +8921,19 @@
         <v>59995</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46650</v>
+        <v>46904</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74197</v>
+        <v>74824</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.07386187037782989</v>
+        <v>0.0738618703778299</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05743260244385515</v>
+        <v>0.05774478942662736</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09134603125964644</v>
+        <v>0.09211823173253544</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>114</v>
@@ -8942,19 +8942,19 @@
         <v>106727</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>87973</v>
+        <v>86642</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>128090</v>
+        <v>126000</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06607095875057735</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05446143377955386</v>
+        <v>0.05363733517215483</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07929644015252194</v>
+        <v>0.07800267457049208</v>
       </c>
     </row>
     <row r="19">
@@ -8971,19 +8971,19 @@
         <v>133980</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112834</v>
+        <v>111664</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>160886</v>
+        <v>159302</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1668345868236047</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1405027461286521</v>
+        <v>0.139045318160317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2003375764166562</v>
+        <v>0.1983656344244371</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>158</v>
@@ -8992,19 +8992,19 @@
         <v>128587</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>110482</v>
+        <v>110253</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>149283</v>
+        <v>151031</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.158307647784637</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.136017710900201</v>
+        <v>0.1357357350768917</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.183788040868824</v>
+        <v>0.185938933044058</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>267</v>
@@ -9013,19 +9013,19 @@
         <v>262567</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>230681</v>
+        <v>233424</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>293263</v>
+        <v>296317</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1625468727976972</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.142807319050293</v>
+        <v>0.1445050666736445</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1815497437425748</v>
+        <v>0.1834404081109908</v>
       </c>
     </row>
     <row r="20">
@@ -9042,19 +9042,19 @@
         <v>606829</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>577880</v>
+        <v>578741</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>631973</v>
+        <v>632841</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7556336641025452</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7195860754846225</v>
+        <v>0.7206575897632553</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7869433795823517</v>
+        <v>0.7880246293539044</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>789</v>
@@ -9063,19 +9063,19 @@
         <v>602836</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>578129</v>
+        <v>576951</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>626579</v>
+        <v>624986</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7421720580768427</v>
+        <v>0.7421720580768428</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7117539727148151</v>
+        <v>0.7103048370507631</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7714025734017501</v>
+        <v>0.769441457478924</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1304</v>
@@ -9084,19 +9084,19 @@
         <v>1209665</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1175373</v>
+        <v>1173803</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1247363</v>
+        <v>1246006</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7488645859252685</v>
+        <v>0.7488645859252684</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7276353072854528</v>
+        <v>0.7266638425048479</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7722023739600553</v>
+        <v>0.7713623974867168</v>
       </c>
     </row>
     <row r="21">
@@ -9188,19 +9188,19 @@
         <v>19753</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11546</v>
+        <v>10999</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32900</v>
+        <v>33089</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01995093641823133</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01166192308665583</v>
+        <v>0.01110952623210268</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0332298319262217</v>
+        <v>0.03342151850920407</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -9209,19 +9209,19 @@
         <v>19139</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13123</v>
+        <v>12974</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27680</v>
+        <v>26962</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01711717631671377</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0117366849376989</v>
+        <v>0.0116033902166576</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02475522402706982</v>
+        <v>0.02411316780937852</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -9230,19 +9230,19 @@
         <v>38892</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29300</v>
+        <v>27129</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>53653</v>
+        <v>53270</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0184479756001449</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01389795225803491</v>
+        <v>0.01286808799434497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0254496410055214</v>
+        <v>0.0252677615170904</v>
       </c>
     </row>
     <row r="23">
@@ -9259,19 +9259,19 @@
         <v>4621</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1731</v>
+        <v>1505</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11583</v>
+        <v>11128</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004667309515522839</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001747917136198875</v>
+        <v>0.001520422896384067</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01169911322723301</v>
+        <v>0.01124008435383002</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -9280,19 +9280,19 @@
         <v>11684</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6854</v>
+        <v>7082</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18718</v>
+        <v>19207</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01044910310660569</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006129534822867641</v>
+        <v>0.006333448610064693</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01674023613878204</v>
+        <v>0.01717723039507356</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -9301,19 +9301,19 @@
         <v>16305</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10196</v>
+        <v>10017</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>24930</v>
+        <v>25124</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.00773383911377891</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004836415314625847</v>
+        <v>0.004751414799499088</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01182509088724235</v>
+        <v>0.01191733415633154</v>
       </c>
     </row>
     <row r="24">
@@ -9330,19 +9330,19 @@
         <v>39726</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27816</v>
+        <v>27958</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56370</v>
+        <v>55964</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04012483026265897</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02809555879516567</v>
+        <v>0.02823868716520135</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05693604811456474</v>
+        <v>0.0565259773167247</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -9351,19 +9351,19 @@
         <v>48485</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>36119</v>
+        <v>36801</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61659</v>
+        <v>63408</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04336227509041154</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03230289219072664</v>
+        <v>0.03291283593528521</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05514449917136875</v>
+        <v>0.0567081808552299</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>101</v>
@@ -9372,19 +9372,19 @@
         <v>88211</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>71035</v>
+        <v>71146</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>109751</v>
+        <v>108888</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04184189612304105</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03369452285285351</v>
+        <v>0.03374710258154075</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05205878008276157</v>
+        <v>0.05164978421920065</v>
       </c>
     </row>
     <row r="25">
@@ -9401,19 +9401,19 @@
         <v>102939</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>82323</v>
+        <v>83965</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124622</v>
+        <v>126440</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1039717869068356</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08314982914130926</v>
+        <v>0.08480827781419073</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.12587278141173</v>
+        <v>0.1277093716912761</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>166</v>
@@ -9422,19 +9422,19 @@
         <v>114014</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>97744</v>
+        <v>96521</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133251</v>
+        <v>131888</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1019675184569998</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08741663636762741</v>
+        <v>0.08632269565503055</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.119171208576429</v>
+        <v>0.117952553164945</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>270</v>
@@ -9443,19 +9443,19 @@
         <v>216953</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>191800</v>
+        <v>191372</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>246609</v>
+        <v>244546</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1029087692761558</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0909775933750125</v>
+        <v>0.09077458941525587</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1169756245254753</v>
+        <v>0.1159970967763275</v>
       </c>
     </row>
     <row r="26">
@@ -9472,19 +9472,19 @@
         <v>823024</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>793625</v>
+        <v>796353</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>847287</v>
+        <v>850536</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8312851368967513</v>
+        <v>0.8312851368967512</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8015916661981275</v>
+        <v>0.8043465615532006</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8557918896656271</v>
+        <v>0.8590737271291705</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1286</v>
@@ -9493,19 +9493,19 @@
         <v>924821</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>901304</v>
+        <v>902592</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>945516</v>
+        <v>946507</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8271039270292693</v>
+        <v>0.8271039270292694</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.806071372017571</v>
+        <v>0.8072234549950402</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8456118335131598</v>
+        <v>0.8464980869148278</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2128</v>
@@ -9514,19 +9514,19 @@
         <v>1747845</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1710767</v>
+        <v>1713794</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1779134</v>
+        <v>1782297</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8290675198868792</v>
+        <v>0.8290675198868793</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8114799126446628</v>
+        <v>0.8129158311390593</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8439088783851292</v>
+        <v>0.8454094453345086</v>
       </c>
     </row>
     <row r="27">
@@ -9618,19 +9618,19 @@
         <v>41787</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27913</v>
+        <v>29021</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>59243</v>
+        <v>61305</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.011828494518158</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007901128843996477</v>
+        <v>0.008214730284581117</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01676960400041881</v>
+        <v>0.01735324460047579</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>69</v>
@@ -9639,19 +9639,19 @@
         <v>49087</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>39057</v>
+        <v>38277</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>63214</v>
+        <v>63949</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01314869503857761</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0104618908443779</v>
+        <v>0.01025320396120558</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01693295613403159</v>
+        <v>0.01712960489927754</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>105</v>
@@ -9660,19 +9660,19 @@
         <v>90874</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>74682</v>
+        <v>73292</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>113349</v>
+        <v>112423</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01250680609426969</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01027833965543855</v>
+        <v>0.01008701835162149</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01559995869127588</v>
+        <v>0.0154725449215806</v>
       </c>
     </row>
     <row r="29">
@@ -9689,19 +9689,19 @@
         <v>24675</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16569</v>
+        <v>16378</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>36613</v>
+        <v>36491</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006984567095475233</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.004690097120086392</v>
+        <v>0.00463600498211901</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01036381239108297</v>
+        <v>0.01032935925211568</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>63</v>
@@ -9710,19 +9710,19 @@
         <v>49139</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>38131</v>
+        <v>37260</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>67190</v>
+        <v>64360</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.01316268393861917</v>
+        <v>0.01316268393861918</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01021390720340264</v>
+        <v>0.009980757098971171</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01799787231313644</v>
+        <v>0.01723979056938675</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>90</v>
@@ -9731,19 +9731,19 @@
         <v>73814</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>59531</v>
+        <v>58433</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>92709</v>
+        <v>91433</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.01015884865987213</v>
+        <v>0.01015884865987212</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.008193155579445577</v>
+        <v>0.008042013440677842</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01275933169016522</v>
+        <v>0.01258371998844138</v>
       </c>
     </row>
     <row r="30">
@@ -9760,19 +9760,19 @@
         <v>141621</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>119472</v>
+        <v>117921</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>168380</v>
+        <v>167828</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04008791917342559</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03381840805573437</v>
+        <v>0.03337933047446589</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04766230991232056</v>
+        <v>0.04750609055889933</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>234</v>
@@ -9781,19 +9781,19 @@
         <v>168875</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>147728</v>
+        <v>146949</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>193133</v>
+        <v>192775</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04523566569642399</v>
+        <v>0.045235665696424</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03957115996838739</v>
+        <v>0.03936242838159935</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05173371162662448</v>
+        <v>0.05163764173338603</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>367</v>
@@ -9802,19 +9802,19 @@
         <v>310496</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>277499</v>
+        <v>277360</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>344909</v>
+        <v>342386</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04273280228279499</v>
+        <v>0.04273280228279498</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0381915061218504</v>
+        <v>0.03817234898388971</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.047469034011534</v>
+        <v>0.047121833973529</v>
       </c>
     </row>
     <row r="31">
@@ -9831,19 +9831,19 @@
         <v>398985</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>357385</v>
+        <v>360368</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>439795</v>
+        <v>439528</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1129385700223573</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.101163152770277</v>
+        <v>0.1020073239514352</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1244903572732905</v>
+        <v>0.1244147646151168</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>651</v>
@@ -9852,19 +9852,19 @@
         <v>436978</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>404903</v>
+        <v>405279</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>469615</v>
+        <v>469032</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1170512722908176</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1084594738923439</v>
+        <v>0.1085601238786765</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1257935261022541</v>
+        <v>0.1256373164263075</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1030</v>
@@ -9873,19 +9873,19 @@
         <v>835963</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>775656</v>
+        <v>779109</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>886962</v>
+        <v>890745</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1150516532355883</v>
+        <v>0.1150516532355882</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1067517365711791</v>
+        <v>0.1072268920270108</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1220705290341239</v>
+        <v>0.1225911275131748</v>
       </c>
     </row>
     <row r="32">
@@ -9902,19 +9902,19 @@
         <v>2925694</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2875268</v>
+        <v>2876806</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2971204</v>
+        <v>2970376</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.828160449190584</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8138867655112015</v>
+        <v>0.8143220645695739</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8410428200340601</v>
+        <v>0.8408084699215336</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4344</v>
@@ -9923,19 +9923,19 @@
         <v>3029142</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2987737</v>
+        <v>2983874</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3067169</v>
+        <v>3069566</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.8114016830355615</v>
+        <v>0.8114016830355617</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8003107036148908</v>
+        <v>0.799276108465529</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8215878375794776</v>
+        <v>0.8222298867765914</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7145</v>
@@ -9944,19 +9944,19 @@
         <v>5954836</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5889458</v>
+        <v>5891902</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6017764</v>
+        <v>6017979</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.8195498897274749</v>
+        <v>0.8195498897274748</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8105521298545607</v>
+        <v>0.810888533268913</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8282105977259551</v>
+        <v>0.8282401797807393</v>
       </c>
     </row>
     <row r="33">
